--- a/KanBan.xlsx
+++ b/KanBan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>Task</t>
   </si>
@@ -111,6 +111,21 @@
   </si>
   <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>Recommend CI Service</t>
+  </si>
+  <si>
+    <t>Develop Project Demo</t>
+  </si>
+  <si>
+    <t>Do Project Demo</t>
+  </si>
+  <si>
+    <t>Finalise Project Report</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -437,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,9 +463,10 @@
     <col min="1" max="1" width="45.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,8 +476,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -469,7 +488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -477,7 +496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -485,7 +504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -493,7 +512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -501,7 +520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -509,7 +528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -517,7 +536,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -525,7 +544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -533,7 +552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -541,7 +560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -549,7 +568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -557,7 +576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -565,20 +584,20 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -637,6 +656,43 @@
         <v>27</v>
       </c>
       <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C23"/>
